--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T19:47:38+00:00</t>
+    <t>2024-08-08T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -960,17 +960,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.62890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.83203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -979,26 +979,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.05078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.91015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.0546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="175.1171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="47.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="150.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="41.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="199">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>StudySubject</t>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>Observation[classCode=CLNTRL, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>clinical.diagnostics</t>
   </si>
   <si>
     <t>ResearchSubject.id</t>
@@ -368,7 +365,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -426,10 +423,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -480,10 +473,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>ResearchSubject.modifierExtension</t>
   </si>
   <si>
@@ -501,7 +490,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -544,7 +533,7 @@
     <t>Indicates the progression of a study subject through a study.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/research-subject-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/research-subject-status|4.0.1</t>
   </si>
   <si>
     <t>StudySubject.statusCode</t>
@@ -1234,15 +1223,15 @@
         <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1253,28 +1242,28 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1324,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1353,10 +1342,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1367,25 +1356,25 @@
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1436,19 +1425,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1465,10 +1454,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1479,28 +1468,28 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1550,19 +1539,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -1579,10 +1568,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1593,7 +1582,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1605,16 +1594,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1640,43 +1629,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -1693,21 +1682,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1719,16 +1708,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1778,19 +1767,19 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
@@ -1799,7 +1788,7 @@
         <v>20</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>20</v>
@@ -1807,14 +1796,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1833,16 +1822,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1892,7 +1881,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -1904,7 +1893,7 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>20</v>
@@ -1913,7 +1902,7 @@
         <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>20</v>
@@ -1921,10 +1910,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1947,13 +1936,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1992,17 +1981,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2014,7 +2003,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2031,13 +2020,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
@@ -2059,13 +2048,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2116,7 +2105,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2125,10 +2114,10 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2145,14 +2134,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2165,25 +2154,25 @@
         <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2232,7 +2221,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2244,7 +2233,7 @@
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -2253,7 +2242,7 @@
         <v>20</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>20</v>
@@ -2261,10 +2250,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2284,16 +2273,16 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2344,7 +2333,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2356,27 +2345,27 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2384,28 +2373,28 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="J13" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2432,92 +2421,92 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2568,22 +2557,22 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
@@ -2592,15 +2581,15 @@
         <v>20</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2608,28 +2597,28 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2680,22 +2669,22 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -2709,10 +2698,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2720,28 +2709,28 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2792,19 +2781,19 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>85</v>
@@ -2821,10 +2810,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2835,7 +2824,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -2847,13 +2836,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2904,22 +2893,22 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
@@ -2933,10 +2922,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2947,7 +2936,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -2959,13 +2948,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3016,22 +3005,22 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
@@ -3045,10 +3034,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3059,7 +3048,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3071,13 +3060,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3128,22 +3117,22 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,10 +453,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>ResearchSubject.extension:access-policy</t>
-  </si>
-  <si>
-    <t>access-policy</t>
+    <t>ResearchSubject.extension:accessPolicy</t>
+  </si>
+  <si>
+    <t>accessPolicy</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/access-policy}
@@ -949,9 +949,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="28.83203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-Study-Participant.xlsx
+++ b/StructureDefinition-ncpi-Study-Participant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
